--- a/data/sp-500-earnings-growth.xlsx
+++ b/data/sp-500-earnings-growth.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_____UPDATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D174A0-0C21-4561-BEF5-6C594D4E798E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023696BC-8666-496B-8257-563EE03D826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
-    <sheet name="Data - annually" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Date</t>
   </si>
@@ -97,7 +96,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -404,17 +403,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE687C3C-53F7-4F96-97CF-AADF98D3558F}">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -422,1428 +421,1131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B3" s="4">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45473</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B4" s="4">
         <v>8.24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45382</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B5" s="4">
         <v>9.26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45291</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B6" s="4">
         <v>11.39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45199</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B7" s="4">
         <v>-1.51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45107</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B8" s="4">
         <v>-5.8500000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45016</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B9" s="4">
         <v>-11.49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A8" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>44926</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B10" s="4">
         <v>-12.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A9" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>44834</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B11" s="4">
         <v>6.68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A10" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>44742</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B12" s="4">
         <v>21.099999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A11" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>44651</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B13" s="4">
         <v>54.379999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A12" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>44561</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B14" s="4">
         <v>110.21000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A13" s="1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>44469</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B15" s="4">
         <v>78.55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A14" s="1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>44377</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B16" s="4">
         <v>59.99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A15" s="1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>44286</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B17" s="4">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A16" s="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>44196</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B18" s="4">
         <v>-32.51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17" s="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>44104</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B19" s="4">
         <v>-26.090000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A18" s="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>44012</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B20" s="4">
         <v>-26.640000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A19" s="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>43921</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B21" s="4">
         <v>-13.44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A20" s="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>43830</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B22" s="4">
         <v>5.35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A21" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>43738</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B23" s="4">
         <v>1.92</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A22" s="1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>43646</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B24" s="4">
         <v>10.440000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A23" s="1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>43555</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B25" s="4">
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A24" s="1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>43465</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B26" s="4">
         <v>20.49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A25" s="1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>43373</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B27" s="4">
         <v>21.77</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A26" s="1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>43281</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B28" s="4">
         <v>17.75</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A27" s="1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>43190</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B29" s="4">
         <v>15.110000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A28" s="1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>43100</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B30" s="4">
         <v>16.21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A29" s="1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>43008</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B31" s="4">
         <v>20.190000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A30" s="1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>42916</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B32" s="4">
         <v>19.670000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A31" s="1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>42825</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B33" s="4">
         <v>16.02</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A32" s="1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>42735</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B34" s="4">
         <v>9.27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A33" s="1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>42643</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B35" s="4">
         <v>-1.73</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A34" s="1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>42551</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B36" s="4">
         <v>-8.42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A35" s="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>42460</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B37" s="4">
         <v>-12.91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A36" s="1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>42369</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B38" s="4">
         <v>-15.42</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A37" s="1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>42277</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B39" s="4">
         <v>-14.44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A38" s="1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>42185</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B40" s="4">
         <v>-7.9600000000000009</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A39" s="1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>42094</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B41" s="4">
         <v>-1.59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A40" s="1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>42004</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B42" s="4">
         <v>2.11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A41" s="1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41912</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B43" s="4">
         <v>12.280000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A42" s="1">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>41820</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B44" s="4">
         <v>13.38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A43" s="1">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>41729</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B45" s="4">
         <v>14.99</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A44" s="1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>41639</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B46" s="4">
         <v>15.82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A45" s="1">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>41547</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B47" s="4">
         <v>9.1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A46" s="1">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>41455</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B48" s="4">
         <v>3.45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A47" s="1">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>41364</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B49" s="4">
         <v>-0.95</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A48" s="1">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>41274</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B50" s="4">
         <v>-0.51</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A49" s="1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>41182</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B51" s="4">
         <v>-0.54999999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A50" s="1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>41090</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B52" s="4">
         <v>4.83</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A51" s="1">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>40999</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B53" s="4">
         <v>8.89</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A52" s="1">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>40908</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B54" s="4">
         <v>12.41</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A53" s="1">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>40816</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B55" s="4">
         <v>21.04</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A54" s="1">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>40724</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B56" s="4">
         <v>24.990000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A55" s="1">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>40633</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B57" s="4">
         <v>33.450000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A56" s="1">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>40543</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B58" s="4">
         <v>51.76</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A57" s="1">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>40451</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B59" s="4">
         <v>473.05</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A58" s="1">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>40359</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B60" s="4">
         <v>793.48</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A59" s="1">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>40268</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B61" s="4">
         <v>788.18999999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A60" s="1">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>40178</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B62" s="4">
         <v>242.53999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A61" s="1">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>40086</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B63" s="4">
         <v>-72.709999999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A62" s="1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>39994</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B64" s="4">
         <v>-85.38</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A63" s="1">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>39903</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B65" s="4">
         <v>-88.64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A64" s="1">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>39813</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B66" s="4">
         <v>-77.52</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A65" s="1">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>39721</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B67" s="4">
         <v>-41.54</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A66" s="1">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>39629</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B68" s="4">
         <v>-39.51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A67" s="1">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>39538</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B69" s="4">
         <v>-27.37</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A68" s="1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>39447</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B70" s="4">
         <v>-18.809999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A69" s="1">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>39355</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B71" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A70" s="1">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>39263</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B72" s="4">
         <v>14.000000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A71" s="1">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>39172</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B73" s="4">
         <v>14.42</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A72" s="1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>39082</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B74" s="4">
         <v>16.73</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A73" s="1">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>38990</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B75" s="4">
         <v>18.2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A74" s="1">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>38898</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B76" s="4">
         <v>17.75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A75" s="1">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>38807</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B77" s="4">
         <v>20.669999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A76" s="1">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>38717</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B78" s="4">
         <v>19.27</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A77" s="1">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>38625</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B79" s="4">
         <v>15.06</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A78" s="1">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>38533</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B80" s="4">
         <v>12.659999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A79" s="1">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>38442</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B81" s="4">
         <v>15.809999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A80" s="1">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>38352</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B82" s="4">
         <v>20.13</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A81" s="1">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>38260</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B83" s="4">
         <v>49.74</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A82" s="1">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>38168</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B84" s="4">
         <v>62.519999999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A83" s="1">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>38077</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B85" s="4">
         <v>71.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A84" s="1">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>37986</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B86" s="4">
         <v>76.66</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A85" s="1">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>37894</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B87" s="4">
         <v>28.43</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A86" s="1">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>37802</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B88" s="4">
         <v>29.21</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A87" s="1">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>37711</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B89" s="4">
         <v>22.75</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A88" s="1">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>37621</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B90" s="4">
         <v>11.75</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A89" s="1">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>37529</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B91" s="4">
         <v>6.11</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A90" s="1">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>37437</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B92" s="4">
         <v>-27.32</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A91" s="1">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>37346</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B93" s="4">
         <v>-45.64</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A92" s="1">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>37256</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B94" s="4">
         <v>-50.62</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A93" s="1">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>37164</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B95" s="4">
         <v>-47.28</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A94" s="1">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>37072</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B96" s="4">
         <v>-29.14</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A95" s="1">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>36981</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B97" s="4">
         <v>-10.81</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A96" s="1">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>36891</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B98" s="4">
         <v>3.8</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A97" s="1">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>36799</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B99" s="4">
         <v>22.16</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A98" s="1">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>36707</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B100" s="4">
         <v>26.57</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A99" s="1">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>36616</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B101" s="4">
         <v>32.75</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A100" s="1">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>36525</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B102" s="4">
         <v>27.74</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A101" s="1">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>36433</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B103" s="4">
         <v>15.409999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A102" s="1">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>36341</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B104" s="4">
         <v>5.26</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A103" s="1">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>36250</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B105" s="4">
         <v>-2.93</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A104" s="1">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>36160</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B106" s="4">
         <v>-5.0599999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A105" s="1">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>36068</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B107" s="4">
         <v>-6.2700000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A106" s="1">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>35976</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B108" s="4">
         <v>-3.9</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A107" s="1">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>35885</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B109" s="4">
         <v>-1.7399999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A108" s="1">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>35795</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B110" s="4">
         <v>2.56</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A109" s="1">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>35703</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B111" s="4">
         <v>12.889999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A110" s="1">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>35611</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B112" s="4">
         <v>16.16</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A111" s="1">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>35520</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B113" s="4">
         <v>18.21</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A112" s="1">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>35430</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B114" s="4">
         <v>14.05</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A113" s="1">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>35338</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B115" s="4">
         <v>2.33</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A114" s="1">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>35246</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B116" s="4">
         <v>1.39</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A115" s="1">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>35155</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B117" s="4">
         <v>4.58</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A116" s="1">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>35064</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B118" s="4">
         <v>10.979999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A117" s="1">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>34972</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B119" s="4">
         <v>28.720000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A118" s="1">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>34880</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B120" s="4">
         <v>36.630000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A119" s="1">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>34789</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B121" s="4">
         <v>43.33</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A120" s="1">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>34699</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B122" s="4">
         <v>39.79</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A121" s="1">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>34607</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B123" s="4">
         <v>33.900000000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A122" s="1">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>34515</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B124" s="4">
         <v>30.37</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A123" s="1">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>34424</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B125" s="4">
         <v>14.469999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A124" s="1">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>34334</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B126" s="4">
         <v>14.67</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A125" s="1">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>34242</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B127" s="4">
         <v>13.139999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A126" s="1">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>34150</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B128" s="4">
         <v>13.370000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A127" s="1">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>34059</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B129" s="4">
         <v>22.54</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A128" s="1">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>33969</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B130" s="4">
         <v>19.54</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A129" s="1">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>33877</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B131" s="4">
         <v>1.23</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A130" s="1">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>33785</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B132" s="4">
         <v>-12.16</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A131" s="1">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>33694</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B133" s="4">
         <v>-22.68</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A132" s="1">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>33603</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B134" s="4">
         <v>-25.16</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A133" s="1">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>33511</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B135" s="4">
         <v>-18.029999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A134" s="1">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>33419</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B136" s="4">
         <v>-8.6999999999999993</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A135" s="1">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>33328</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B137" s="4">
         <v>-3.37</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A136" s="1">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>33238</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B138" s="4">
         <v>-6.69</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A137" s="1">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>33146</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B139" s="4">
         <v>-8.23</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A138" s="1">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>33054</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B140" s="4">
         <v>-15.7</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A139" s="1">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>32963</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B141" s="4">
         <v>-13.18</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A140" s="1">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>32873</v>
       </c>
-      <c r="B140" s="4">
-        <v>-3.71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BE290-60A4-476D-B389-4DEF544B9ADE}">
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6796875" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
-        <v>45473</v>
-      </c>
-      <c r="B2" s="4">
-        <v>8.24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>45291</v>
-      </c>
-      <c r="B3" s="4">
-        <v>11.39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>44926</v>
-      </c>
-      <c r="B4" s="4">
-        <v>-12.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>44561</v>
-      </c>
-      <c r="B5" s="4">
-        <v>110.21000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
-        <v>44196</v>
-      </c>
-      <c r="B6" s="4">
-        <v>-32.51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
-        <v>43830</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A8" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B8" s="4">
-        <v>20.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A9" s="1">
-        <v>43100</v>
-      </c>
-      <c r="B9" s="4">
-        <v>16.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A10" s="1">
-        <v>42735</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A11" s="1">
-        <v>42369</v>
-      </c>
-      <c r="B11" s="4">
-        <v>-15.42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A12" s="1">
-        <v>42004</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A13" s="1">
-        <v>41639</v>
-      </c>
-      <c r="B13" s="4">
-        <v>15.82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A14" s="1">
-        <v>41274</v>
-      </c>
-      <c r="B14" s="4">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A15" s="1">
-        <v>40908</v>
-      </c>
-      <c r="B15" s="4">
-        <v>12.41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A16" s="1">
-        <v>40543</v>
-      </c>
-      <c r="B16" s="4">
-        <v>51.76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B17" s="4">
-        <v>242.53999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A18" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B18" s="4">
-        <v>-77.52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A19" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B19" s="4">
-        <v>-18.809999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A20" s="1">
-        <v>39082</v>
-      </c>
-      <c r="B20" s="4">
-        <v>16.73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A21" s="1">
-        <v>38717</v>
-      </c>
-      <c r="B21" s="4">
-        <v>19.27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A22" s="1">
-        <v>38352</v>
-      </c>
-      <c r="B22" s="4">
-        <v>20.13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A23" s="1">
-        <v>37986</v>
-      </c>
-      <c r="B23" s="4">
-        <v>76.66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A24" s="1">
-        <v>37621</v>
-      </c>
-      <c r="B24" s="4">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A25" s="1">
-        <v>37256</v>
-      </c>
-      <c r="B25" s="4">
-        <v>-50.62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A26" s="1">
-        <v>36891</v>
-      </c>
-      <c r="B26" s="4">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A27" s="1">
-        <v>36525</v>
-      </c>
-      <c r="B27" s="4">
-        <v>27.74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A28" s="1">
-        <v>36160</v>
-      </c>
-      <c r="B28" s="4">
-        <v>-5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A29" s="1">
-        <v>35795</v>
-      </c>
-      <c r="B29" s="4">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A30" s="1">
-        <v>35430</v>
-      </c>
-      <c r="B30" s="4">
-        <v>14.05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A31" s="1">
-        <v>35064</v>
-      </c>
-      <c r="B31" s="4">
-        <v>10.979999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A32" s="1">
-        <v>34699</v>
-      </c>
-      <c r="B32" s="4">
-        <v>39.79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A33" s="1">
-        <v>34334</v>
-      </c>
-      <c r="B33" s="4">
-        <v>14.67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A34" s="1">
-        <v>33969</v>
-      </c>
-      <c r="B34" s="4">
-        <v>19.54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A35" s="1">
-        <v>33603</v>
-      </c>
-      <c r="B35" s="4">
-        <v>-25.16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A36" s="1">
-        <v>33238</v>
-      </c>
-      <c r="B36" s="4">
-        <v>-6.69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A37" s="1">
-        <v>32873</v>
-      </c>
-      <c r="B37" s="4">
+      <c r="B142" s="4">
         <v>-3.71</v>
       </c>
     </row>

--- a/data/sp-500-earnings-growth.xlsx
+++ b/data/sp-500-earnings-growth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_____UPDATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023696BC-8666-496B-8257-563EE03D826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F59DABC-06D2-4228-A3C2-28E21376C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE687C3C-53F7-4F96-97CF-AADF98D3558F}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,1129 +423,1137 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45657</v>
+        <v>45747</v>
       </c>
       <c r="B2" s="4">
-        <v>20.7</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45565</v>
+        <v>45657</v>
       </c>
       <c r="B3" s="4">
-        <v>9.1</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45473</v>
+        <v>45565</v>
       </c>
       <c r="B4" s="4">
-        <v>8.24</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45382</v>
+        <v>45473</v>
       </c>
       <c r="B5" s="4">
-        <v>9.26</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45291</v>
+        <v>45382</v>
       </c>
       <c r="B6" s="4">
-        <v>11.39</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="B7" s="4">
-        <v>-1.51</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45107</v>
+        <v>45199</v>
       </c>
       <c r="B8" s="4">
-        <v>-5.8500000000000005</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="B9" s="4">
-        <v>-11.49</v>
+        <v>-5.8500000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="B10" s="4">
-        <v>-12.7</v>
+        <v>-11.49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="B11" s="4">
-        <v>6.68</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="B12" s="4">
-        <v>21.099999999999998</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="B13" s="4">
-        <v>54.379999999999995</v>
+        <v>21.099999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="B14" s="4">
-        <v>110.21000000000001</v>
+        <v>54.379999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="B15" s="4">
-        <v>78.55</v>
+        <v>110.21000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="B16" s="4">
-        <v>59.99</v>
+        <v>78.55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="B17" s="4">
-        <v>10.199999999999999</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="B18" s="4">
-        <v>-32.51</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="B19" s="4">
-        <v>-26.090000000000003</v>
+        <v>-32.51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="B20" s="4">
-        <v>-26.640000000000004</v>
+        <v>-26.090000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43921</v>
+        <v>44012</v>
       </c>
       <c r="B21" s="4">
-        <v>-13.44</v>
+        <v>-26.640000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="B22" s="4">
-        <v>5.35</v>
+        <v>-13.44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43738</v>
+        <v>43830</v>
       </c>
       <c r="B23" s="4">
-        <v>1.92</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43646</v>
+        <v>43738</v>
       </c>
       <c r="B24" s="4">
-        <v>10.440000000000001</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43555</v>
+        <v>43646</v>
       </c>
       <c r="B25" s="4">
-        <v>16.420000000000002</v>
+        <v>10.440000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="B26" s="4">
-        <v>20.49</v>
+        <v>16.420000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43373</v>
+        <v>43465</v>
       </c>
       <c r="B27" s="4">
-        <v>21.77</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43281</v>
+        <v>43373</v>
       </c>
       <c r="B28" s="4">
-        <v>17.75</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43190</v>
+        <v>43281</v>
       </c>
       <c r="B29" s="4">
-        <v>15.110000000000001</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="B30" s="4">
-        <v>16.21</v>
+        <v>15.110000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43008</v>
+        <v>43100</v>
       </c>
       <c r="B31" s="4">
-        <v>20.190000000000001</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42916</v>
+        <v>43008</v>
       </c>
       <c r="B32" s="4">
-        <v>19.670000000000002</v>
+        <v>20.190000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42825</v>
+        <v>42916</v>
       </c>
       <c r="B33" s="4">
-        <v>16.02</v>
+        <v>19.670000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="B34" s="4">
-        <v>9.27</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42643</v>
+        <v>42735</v>
       </c>
       <c r="B35" s="4">
-        <v>-1.73</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42551</v>
+        <v>42643</v>
       </c>
       <c r="B36" s="4">
-        <v>-8.42</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42460</v>
+        <v>42551</v>
       </c>
       <c r="B37" s="4">
-        <v>-12.91</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="B38" s="4">
-        <v>-15.42</v>
+        <v>-12.91</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42277</v>
+        <v>42369</v>
       </c>
       <c r="B39" s="4">
-        <v>-14.44</v>
+        <v>-15.42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42185</v>
+        <v>42277</v>
       </c>
       <c r="B40" s="4">
-        <v>-7.9600000000000009</v>
+        <v>-14.44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42094</v>
+        <v>42185</v>
       </c>
       <c r="B41" s="4">
-        <v>-1.59</v>
+        <v>-7.9600000000000009</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42004</v>
+        <v>42094</v>
       </c>
       <c r="B42" s="4">
-        <v>2.11</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41912</v>
+        <v>42004</v>
       </c>
       <c r="B43" s="4">
-        <v>12.280000000000001</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41820</v>
+        <v>41912</v>
       </c>
       <c r="B44" s="4">
-        <v>13.38</v>
+        <v>12.280000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41729</v>
+        <v>41820</v>
       </c>
       <c r="B45" s="4">
-        <v>14.99</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41639</v>
+        <v>41729</v>
       </c>
       <c r="B46" s="4">
-        <v>15.82</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41547</v>
+        <v>41639</v>
       </c>
       <c r="B47" s="4">
-        <v>9.1</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41455</v>
+        <v>41547</v>
       </c>
       <c r="B48" s="4">
-        <v>3.45</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41364</v>
+        <v>41455</v>
       </c>
       <c r="B49" s="4">
-        <v>-0.95</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41274</v>
+        <v>41364</v>
       </c>
       <c r="B50" s="4">
-        <v>-0.51</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41182</v>
+        <v>41274</v>
       </c>
       <c r="B51" s="4">
-        <v>-0.54999999999999993</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41090</v>
+        <v>41182</v>
       </c>
       <c r="B52" s="4">
-        <v>4.83</v>
+        <v>-0.54999999999999993</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>40999</v>
+        <v>41090</v>
       </c>
       <c r="B53" s="4">
-        <v>8.89</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>40908</v>
+        <v>40999</v>
       </c>
       <c r="B54" s="4">
-        <v>12.41</v>
+        <v>8.89</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>40816</v>
+        <v>40908</v>
       </c>
       <c r="B55" s="4">
-        <v>21.04</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>40724</v>
+        <v>40816</v>
       </c>
       <c r="B56" s="4">
-        <v>24.990000000000002</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>40633</v>
+        <v>40724</v>
       </c>
       <c r="B57" s="4">
-        <v>33.450000000000003</v>
+        <v>24.990000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>40543</v>
+        <v>40633</v>
       </c>
       <c r="B58" s="4">
-        <v>51.76</v>
+        <v>33.450000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>40451</v>
+        <v>40543</v>
       </c>
       <c r="B59" s="4">
-        <v>473.05</v>
+        <v>51.76</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>40359</v>
+        <v>40451</v>
       </c>
       <c r="B60" s="4">
-        <v>793.48</v>
+        <v>473.05</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>40268</v>
+        <v>40359</v>
       </c>
       <c r="B61" s="4">
-        <v>788.18999999999994</v>
+        <v>793.48</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>40178</v>
+        <v>40268</v>
       </c>
       <c r="B62" s="4">
-        <v>242.53999999999996</v>
+        <v>788.18999999999994</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>40086</v>
+        <v>40178</v>
       </c>
       <c r="B63" s="4">
-        <v>-72.709999999999994</v>
+        <v>242.53999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>39994</v>
+        <v>40086</v>
       </c>
       <c r="B64" s="4">
-        <v>-85.38</v>
+        <v>-72.709999999999994</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>39903</v>
+        <v>39994</v>
       </c>
       <c r="B65" s="4">
-        <v>-88.64</v>
+        <v>-85.38</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>39813</v>
+        <v>39903</v>
       </c>
       <c r="B66" s="4">
-        <v>-77.52</v>
+        <v>-88.64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>39721</v>
+        <v>39813</v>
       </c>
       <c r="B67" s="4">
-        <v>-41.54</v>
+        <v>-77.52</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>39629</v>
+        <v>39721</v>
       </c>
       <c r="B68" s="4">
-        <v>-39.51</v>
+        <v>-41.54</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>39538</v>
+        <v>39629</v>
       </c>
       <c r="B69" s="4">
-        <v>-27.37</v>
+        <v>-39.51</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>39447</v>
+        <v>39538</v>
       </c>
       <c r="B70" s="4">
-        <v>-18.809999999999999</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>39355</v>
+        <v>39447</v>
       </c>
       <c r="B71" s="4">
-        <v>0.04</v>
+        <v>-18.809999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>39263</v>
+        <v>39355</v>
       </c>
       <c r="B72" s="4">
-        <v>14.000000000000002</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>39172</v>
+        <v>39263</v>
       </c>
       <c r="B73" s="4">
-        <v>14.42</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>39082</v>
+        <v>39172</v>
       </c>
       <c r="B74" s="4">
-        <v>16.73</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>38990</v>
+        <v>39082</v>
       </c>
       <c r="B75" s="4">
-        <v>18.2</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>38898</v>
+        <v>38990</v>
       </c>
       <c r="B76" s="4">
-        <v>17.75</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>38807</v>
+        <v>38898</v>
       </c>
       <c r="B77" s="4">
-        <v>20.669999999999998</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>38717</v>
+        <v>38807</v>
       </c>
       <c r="B78" s="4">
-        <v>19.27</v>
+        <v>20.669999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>38625</v>
+        <v>38717</v>
       </c>
       <c r="B79" s="4">
-        <v>15.06</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>38533</v>
+        <v>38625</v>
       </c>
       <c r="B80" s="4">
-        <v>12.659999999999998</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>38442</v>
+        <v>38533</v>
       </c>
       <c r="B81" s="4">
-        <v>15.809999999999999</v>
+        <v>12.659999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>38352</v>
+        <v>38442</v>
       </c>
       <c r="B82" s="4">
-        <v>20.13</v>
+        <v>15.809999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>38260</v>
+        <v>38352</v>
       </c>
       <c r="B83" s="4">
-        <v>49.74</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>38168</v>
+        <v>38260</v>
       </c>
       <c r="B84" s="4">
-        <v>62.519999999999996</v>
+        <v>49.74</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="B85" s="4">
-        <v>71.5</v>
+        <v>62.519999999999996</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>37986</v>
+        <v>38077</v>
       </c>
       <c r="B86" s="4">
-        <v>76.66</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>37894</v>
+        <v>37986</v>
       </c>
       <c r="B87" s="4">
-        <v>28.43</v>
+        <v>76.66</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>37802</v>
+        <v>37894</v>
       </c>
       <c r="B88" s="4">
-        <v>29.21</v>
+        <v>28.43</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>37711</v>
+        <v>37802</v>
       </c>
       <c r="B89" s="4">
-        <v>22.75</v>
+        <v>29.21</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>37621</v>
+        <v>37711</v>
       </c>
       <c r="B90" s="4">
-        <v>11.75</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>37529</v>
+        <v>37621</v>
       </c>
       <c r="B91" s="4">
-        <v>6.11</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>37437</v>
+        <v>37529</v>
       </c>
       <c r="B92" s="4">
-        <v>-27.32</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>37346</v>
+        <v>37437</v>
       </c>
       <c r="B93" s="4">
-        <v>-45.64</v>
+        <v>-27.32</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>37256</v>
+        <v>37346</v>
       </c>
       <c r="B94" s="4">
-        <v>-50.62</v>
+        <v>-45.64</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>37164</v>
+        <v>37256</v>
       </c>
       <c r="B95" s="4">
-        <v>-47.28</v>
+        <v>-50.62</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>37072</v>
+        <v>37164</v>
       </c>
       <c r="B96" s="4">
-        <v>-29.14</v>
+        <v>-47.28</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>36981</v>
+        <v>37072</v>
       </c>
       <c r="B97" s="4">
-        <v>-10.81</v>
+        <v>-29.14</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>36891</v>
+        <v>36981</v>
       </c>
       <c r="B98" s="4">
-        <v>3.8</v>
+        <v>-10.81</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>36799</v>
+        <v>36891</v>
       </c>
       <c r="B99" s="4">
-        <v>22.16</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>36707</v>
+        <v>36799</v>
       </c>
       <c r="B100" s="4">
-        <v>26.57</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>36616</v>
+        <v>36707</v>
       </c>
       <c r="B101" s="4">
-        <v>32.75</v>
+        <v>26.57</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>36525</v>
+        <v>36616</v>
       </c>
       <c r="B102" s="4">
-        <v>27.74</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>36433</v>
+        <v>36525</v>
       </c>
       <c r="B103" s="4">
-        <v>15.409999999999998</v>
+        <v>27.74</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>36341</v>
+        <v>36433</v>
       </c>
       <c r="B104" s="4">
-        <v>5.26</v>
+        <v>15.409999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>36250</v>
+        <v>36341</v>
       </c>
       <c r="B105" s="4">
-        <v>-2.93</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>36160</v>
+        <v>36250</v>
       </c>
       <c r="B106" s="4">
-        <v>-5.0599999999999996</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>36068</v>
+        <v>36160</v>
       </c>
       <c r="B107" s="4">
-        <v>-6.2700000000000005</v>
+        <v>-5.0599999999999996</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>35976</v>
+        <v>36068</v>
       </c>
       <c r="B108" s="4">
-        <v>-3.9</v>
+        <v>-6.2700000000000005</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>35885</v>
+        <v>35976</v>
       </c>
       <c r="B109" s="4">
-        <v>-1.7399999999999998</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>35795</v>
+        <v>35885</v>
       </c>
       <c r="B110" s="4">
-        <v>2.56</v>
+        <v>-1.7399999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>35703</v>
+        <v>35795</v>
       </c>
       <c r="B111" s="4">
-        <v>12.889999999999999</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>35611</v>
+        <v>35703</v>
       </c>
       <c r="B112" s="4">
-        <v>16.16</v>
+        <v>12.889999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>35520</v>
+        <v>35611</v>
       </c>
       <c r="B113" s="4">
-        <v>18.21</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>35430</v>
+        <v>35520</v>
       </c>
       <c r="B114" s="4">
-        <v>14.05</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>35338</v>
+        <v>35430</v>
       </c>
       <c r="B115" s="4">
-        <v>2.33</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>35246</v>
+        <v>35338</v>
       </c>
       <c r="B116" s="4">
-        <v>1.39</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>35155</v>
+        <v>35246</v>
       </c>
       <c r="B117" s="4">
-        <v>4.58</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>35064</v>
+        <v>35155</v>
       </c>
       <c r="B118" s="4">
-        <v>10.979999999999999</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>34972</v>
+        <v>35064</v>
       </c>
       <c r="B119" s="4">
-        <v>28.720000000000002</v>
+        <v>10.979999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>34880</v>
+        <v>34972</v>
       </c>
       <c r="B120" s="4">
-        <v>36.630000000000003</v>
+        <v>28.720000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>34789</v>
+        <v>34880</v>
       </c>
       <c r="B121" s="4">
-        <v>43.33</v>
+        <v>36.630000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>34699</v>
+        <v>34789</v>
       </c>
       <c r="B122" s="4">
-        <v>39.79</v>
+        <v>43.33</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>34607</v>
+        <v>34699</v>
       </c>
       <c r="B123" s="4">
-        <v>33.900000000000006</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>34515</v>
+        <v>34607</v>
       </c>
       <c r="B124" s="4">
-        <v>30.37</v>
+        <v>33.900000000000006</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>34424</v>
+        <v>34515</v>
       </c>
       <c r="B125" s="4">
-        <v>14.469999999999999</v>
+        <v>30.37</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>34334</v>
+        <v>34424</v>
       </c>
       <c r="B126" s="4">
-        <v>14.67</v>
+        <v>14.469999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>34242</v>
+        <v>34334</v>
       </c>
       <c r="B127" s="4">
-        <v>13.139999999999999</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>34150</v>
+        <v>34242</v>
       </c>
       <c r="B128" s="4">
-        <v>13.370000000000001</v>
+        <v>13.139999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>34059</v>
+        <v>34150</v>
       </c>
       <c r="B129" s="4">
-        <v>22.54</v>
+        <v>13.370000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>33969</v>
+        <v>34059</v>
       </c>
       <c r="B130" s="4">
-        <v>19.54</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>33877</v>
+        <v>33969</v>
       </c>
       <c r="B131" s="4">
-        <v>1.23</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>33785</v>
+        <v>33877</v>
       </c>
       <c r="B132" s="4">
-        <v>-12.16</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>33694</v>
+        <v>33785</v>
       </c>
       <c r="B133" s="4">
-        <v>-22.68</v>
+        <v>-12.16</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>33603</v>
+        <v>33694</v>
       </c>
       <c r="B134" s="4">
-        <v>-25.16</v>
+        <v>-22.68</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>33511</v>
+        <v>33603</v>
       </c>
       <c r="B135" s="4">
-        <v>-18.029999999999998</v>
+        <v>-25.16</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>33419</v>
+        <v>33511</v>
       </c>
       <c r="B136" s="4">
-        <v>-8.6999999999999993</v>
+        <v>-18.029999999999998</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>33328</v>
+        <v>33419</v>
       </c>
       <c r="B137" s="4">
-        <v>-3.37</v>
+        <v>-8.6999999999999993</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>33238</v>
+        <v>33328</v>
       </c>
       <c r="B138" s="4">
-        <v>-6.69</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>33146</v>
+        <v>33238</v>
       </c>
       <c r="B139" s="4">
-        <v>-8.23</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>33054</v>
+        <v>33146</v>
       </c>
       <c r="B140" s="4">
-        <v>-15.7</v>
+        <v>-8.23</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>32963</v>
+        <v>33054</v>
       </c>
       <c r="B141" s="4">
-        <v>-13.18</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
+        <v>32963</v>
+      </c>
+      <c r="B142" s="4">
+        <v>-13.18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>32873</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B143" s="4">
         <v>-3.71</v>
       </c>
     </row>

--- a/data/sp-500-earnings-growth.xlsx
+++ b/data/sp-500-earnings-growth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_____UPDATES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_18311636090999327232/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F59DABC-06D2-4228-A3C2-28E21376C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2F59DABC-06D2-4228-A3C2-28E21376C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11C46DBD-FA01-4F5F-8B34-02AC33BF9B1E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,9 +403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE687C3C-53F7-4F96-97CF-AADF98D3558F}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -423,1137 +425,1145 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45747</v>
+        <v>45930</v>
       </c>
       <c r="B2" s="4">
-        <v>13.8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45657</v>
+        <v>45747</v>
       </c>
       <c r="B3" s="4">
-        <v>20.7</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45565</v>
+        <v>45657</v>
       </c>
       <c r="B4" s="4">
-        <v>9.1</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45473</v>
+        <v>45565</v>
       </c>
       <c r="B5" s="4">
-        <v>8.24</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45382</v>
+        <v>45473</v>
       </c>
       <c r="B6" s="4">
-        <v>9.26</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45291</v>
+        <v>45382</v>
       </c>
       <c r="B7" s="4">
-        <v>11.39</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="B8" s="4">
-        <v>-1.51</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45107</v>
+        <v>45199</v>
       </c>
       <c r="B9" s="4">
-        <v>-5.8500000000000005</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="B10" s="4">
-        <v>-11.49</v>
+        <v>-5.8500000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="B11" s="4">
-        <v>-12.7</v>
+        <v>-11.49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="B12" s="4">
-        <v>6.68</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="B13" s="4">
-        <v>21.099999999999998</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="B14" s="4">
-        <v>54.379999999999995</v>
+        <v>21.099999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="B15" s="4">
-        <v>110.21000000000001</v>
+        <v>54.379999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="B16" s="4">
-        <v>78.55</v>
+        <v>110.21000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="B17" s="4">
-        <v>59.99</v>
+        <v>78.55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="B18" s="4">
-        <v>10.199999999999999</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="B19" s="4">
-        <v>-32.51</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="B20" s="4">
-        <v>-26.090000000000003</v>
+        <v>-32.51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="B21" s="4">
-        <v>-26.640000000000004</v>
+        <v>-26.090000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43921</v>
+        <v>44012</v>
       </c>
       <c r="B22" s="4">
-        <v>-13.44</v>
+        <v>-26.640000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="B23" s="4">
-        <v>5.35</v>
+        <v>-13.44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43738</v>
+        <v>43830</v>
       </c>
       <c r="B24" s="4">
-        <v>1.92</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43646</v>
+        <v>43738</v>
       </c>
       <c r="B25" s="4">
-        <v>10.440000000000001</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43555</v>
+        <v>43646</v>
       </c>
       <c r="B26" s="4">
-        <v>16.420000000000002</v>
+        <v>10.440000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="B27" s="4">
-        <v>20.49</v>
+        <v>16.420000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43373</v>
+        <v>43465</v>
       </c>
       <c r="B28" s="4">
-        <v>21.77</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43281</v>
+        <v>43373</v>
       </c>
       <c r="B29" s="4">
-        <v>17.75</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43190</v>
+        <v>43281</v>
       </c>
       <c r="B30" s="4">
-        <v>15.110000000000001</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="B31" s="4">
-        <v>16.21</v>
+        <v>15.110000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43008</v>
+        <v>43100</v>
       </c>
       <c r="B32" s="4">
-        <v>20.190000000000001</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42916</v>
+        <v>43008</v>
       </c>
       <c r="B33" s="4">
-        <v>19.670000000000002</v>
+        <v>20.190000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42825</v>
+        <v>42916</v>
       </c>
       <c r="B34" s="4">
-        <v>16.02</v>
+        <v>19.670000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="B35" s="4">
-        <v>9.27</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42643</v>
+        <v>42735</v>
       </c>
       <c r="B36" s="4">
-        <v>-1.73</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42551</v>
+        <v>42643</v>
       </c>
       <c r="B37" s="4">
-        <v>-8.42</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42460</v>
+        <v>42551</v>
       </c>
       <c r="B38" s="4">
-        <v>-12.91</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="B39" s="4">
-        <v>-15.42</v>
+        <v>-12.91</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42277</v>
+        <v>42369</v>
       </c>
       <c r="B40" s="4">
-        <v>-14.44</v>
+        <v>-15.42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42185</v>
+        <v>42277</v>
       </c>
       <c r="B41" s="4">
-        <v>-7.9600000000000009</v>
+        <v>-14.44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42094</v>
+        <v>42185</v>
       </c>
       <c r="B42" s="4">
-        <v>-1.59</v>
+        <v>-7.9600000000000009</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42004</v>
+        <v>42094</v>
       </c>
       <c r="B43" s="4">
-        <v>2.11</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41912</v>
+        <v>42004</v>
       </c>
       <c r="B44" s="4">
-        <v>12.280000000000001</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41820</v>
+        <v>41912</v>
       </c>
       <c r="B45" s="4">
-        <v>13.38</v>
+        <v>12.280000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41729</v>
+        <v>41820</v>
       </c>
       <c r="B46" s="4">
-        <v>14.99</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41639</v>
+        <v>41729</v>
       </c>
       <c r="B47" s="4">
-        <v>15.82</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41547</v>
+        <v>41639</v>
       </c>
       <c r="B48" s="4">
-        <v>9.1</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41455</v>
+        <v>41547</v>
       </c>
       <c r="B49" s="4">
-        <v>3.45</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41364</v>
+        <v>41455</v>
       </c>
       <c r="B50" s="4">
-        <v>-0.95</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41274</v>
+        <v>41364</v>
       </c>
       <c r="B51" s="4">
-        <v>-0.51</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41182</v>
+        <v>41274</v>
       </c>
       <c r="B52" s="4">
-        <v>-0.54999999999999993</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41090</v>
+        <v>41182</v>
       </c>
       <c r="B53" s="4">
-        <v>4.83</v>
+        <v>-0.54999999999999993</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>40999</v>
+        <v>41090</v>
       </c>
       <c r="B54" s="4">
-        <v>8.89</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>40908</v>
+        <v>40999</v>
       </c>
       <c r="B55" s="4">
-        <v>12.41</v>
+        <v>8.89</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>40816</v>
+        <v>40908</v>
       </c>
       <c r="B56" s="4">
-        <v>21.04</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>40724</v>
+        <v>40816</v>
       </c>
       <c r="B57" s="4">
-        <v>24.990000000000002</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>40633</v>
+        <v>40724</v>
       </c>
       <c r="B58" s="4">
-        <v>33.450000000000003</v>
+        <v>24.990000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>40543</v>
+        <v>40633</v>
       </c>
       <c r="B59" s="4">
-        <v>51.76</v>
+        <v>33.450000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>40451</v>
+        <v>40543</v>
       </c>
       <c r="B60" s="4">
-        <v>473.05</v>
+        <v>51.76</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>40359</v>
+        <v>40451</v>
       </c>
       <c r="B61" s="4">
-        <v>793.48</v>
+        <v>473.05</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>40268</v>
+        <v>40359</v>
       </c>
       <c r="B62" s="4">
-        <v>788.18999999999994</v>
+        <v>793.48</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>40178</v>
+        <v>40268</v>
       </c>
       <c r="B63" s="4">
-        <v>242.53999999999996</v>
+        <v>788.18999999999994</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>40086</v>
+        <v>40178</v>
       </c>
       <c r="B64" s="4">
-        <v>-72.709999999999994</v>
+        <v>242.53999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>39994</v>
+        <v>40086</v>
       </c>
       <c r="B65" s="4">
-        <v>-85.38</v>
+        <v>-72.709999999999994</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>39903</v>
+        <v>39994</v>
       </c>
       <c r="B66" s="4">
-        <v>-88.64</v>
+        <v>-85.38</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>39813</v>
+        <v>39903</v>
       </c>
       <c r="B67" s="4">
-        <v>-77.52</v>
+        <v>-88.64</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>39721</v>
+        <v>39813</v>
       </c>
       <c r="B68" s="4">
-        <v>-41.54</v>
+        <v>-77.52</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>39629</v>
+        <v>39721</v>
       </c>
       <c r="B69" s="4">
-        <v>-39.51</v>
+        <v>-41.54</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>39538</v>
+        <v>39629</v>
       </c>
       <c r="B70" s="4">
-        <v>-27.37</v>
+        <v>-39.51</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>39447</v>
+        <v>39538</v>
       </c>
       <c r="B71" s="4">
-        <v>-18.809999999999999</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>39355</v>
+        <v>39447</v>
       </c>
       <c r="B72" s="4">
-        <v>0.04</v>
+        <v>-18.809999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>39263</v>
+        <v>39355</v>
       </c>
       <c r="B73" s="4">
-        <v>14.000000000000002</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>39172</v>
+        <v>39263</v>
       </c>
       <c r="B74" s="4">
-        <v>14.42</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>39082</v>
+        <v>39172</v>
       </c>
       <c r="B75" s="4">
-        <v>16.73</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>38990</v>
+        <v>39082</v>
       </c>
       <c r="B76" s="4">
-        <v>18.2</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>38898</v>
+        <v>38990</v>
       </c>
       <c r="B77" s="4">
-        <v>17.75</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>38807</v>
+        <v>38898</v>
       </c>
       <c r="B78" s="4">
-        <v>20.669999999999998</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>38717</v>
+        <v>38807</v>
       </c>
       <c r="B79" s="4">
-        <v>19.27</v>
+        <v>20.669999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>38625</v>
+        <v>38717</v>
       </c>
       <c r="B80" s="4">
-        <v>15.06</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>38533</v>
+        <v>38625</v>
       </c>
       <c r="B81" s="4">
-        <v>12.659999999999998</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>38442</v>
+        <v>38533</v>
       </c>
       <c r="B82" s="4">
-        <v>15.809999999999999</v>
+        <v>12.659999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>38352</v>
+        <v>38442</v>
       </c>
       <c r="B83" s="4">
-        <v>20.13</v>
+        <v>15.809999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>38260</v>
+        <v>38352</v>
       </c>
       <c r="B84" s="4">
-        <v>49.74</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>38168</v>
+        <v>38260</v>
       </c>
       <c r="B85" s="4">
-        <v>62.519999999999996</v>
+        <v>49.74</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="B86" s="4">
-        <v>71.5</v>
+        <v>62.519999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>37986</v>
+        <v>38077</v>
       </c>
       <c r="B87" s="4">
-        <v>76.66</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>37894</v>
+        <v>37986</v>
       </c>
       <c r="B88" s="4">
-        <v>28.43</v>
+        <v>76.66</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>37802</v>
+        <v>37894</v>
       </c>
       <c r="B89" s="4">
-        <v>29.21</v>
+        <v>28.43</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>37711</v>
+        <v>37802</v>
       </c>
       <c r="B90" s="4">
-        <v>22.75</v>
+        <v>29.21</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>37621</v>
+        <v>37711</v>
       </c>
       <c r="B91" s="4">
-        <v>11.75</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>37529</v>
+        <v>37621</v>
       </c>
       <c r="B92" s="4">
-        <v>6.11</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>37437</v>
+        <v>37529</v>
       </c>
       <c r="B93" s="4">
-        <v>-27.32</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>37346</v>
+        <v>37437</v>
       </c>
       <c r="B94" s="4">
-        <v>-45.64</v>
+        <v>-27.32</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>37256</v>
+        <v>37346</v>
       </c>
       <c r="B95" s="4">
-        <v>-50.62</v>
+        <v>-45.64</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>37164</v>
+        <v>37256</v>
       </c>
       <c r="B96" s="4">
-        <v>-47.28</v>
+        <v>-50.62</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>37072</v>
+        <v>37164</v>
       </c>
       <c r="B97" s="4">
-        <v>-29.14</v>
+        <v>-47.28</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>36981</v>
+        <v>37072</v>
       </c>
       <c r="B98" s="4">
-        <v>-10.81</v>
+        <v>-29.14</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>36891</v>
+        <v>36981</v>
       </c>
       <c r="B99" s="4">
-        <v>3.8</v>
+        <v>-10.81</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>36799</v>
+        <v>36891</v>
       </c>
       <c r="B100" s="4">
-        <v>22.16</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>36707</v>
+        <v>36799</v>
       </c>
       <c r="B101" s="4">
-        <v>26.57</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>36616</v>
+        <v>36707</v>
       </c>
       <c r="B102" s="4">
-        <v>32.75</v>
+        <v>26.57</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>36525</v>
+        <v>36616</v>
       </c>
       <c r="B103" s="4">
-        <v>27.74</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>36433</v>
+        <v>36525</v>
       </c>
       <c r="B104" s="4">
-        <v>15.409999999999998</v>
+        <v>27.74</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>36341</v>
+        <v>36433</v>
       </c>
       <c r="B105" s="4">
-        <v>5.26</v>
+        <v>15.409999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>36250</v>
+        <v>36341</v>
       </c>
       <c r="B106" s="4">
-        <v>-2.93</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>36160</v>
+        <v>36250</v>
       </c>
       <c r="B107" s="4">
-        <v>-5.0599999999999996</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>36068</v>
+        <v>36160</v>
       </c>
       <c r="B108" s="4">
-        <v>-6.2700000000000005</v>
+        <v>-5.0599999999999996</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>35976</v>
+        <v>36068</v>
       </c>
       <c r="B109" s="4">
-        <v>-3.9</v>
+        <v>-6.2700000000000005</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>35885</v>
+        <v>35976</v>
       </c>
       <c r="B110" s="4">
-        <v>-1.7399999999999998</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>35795</v>
+        <v>35885</v>
       </c>
       <c r="B111" s="4">
-        <v>2.56</v>
+        <v>-1.7399999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>35703</v>
+        <v>35795</v>
       </c>
       <c r="B112" s="4">
-        <v>12.889999999999999</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>35611</v>
+        <v>35703</v>
       </c>
       <c r="B113" s="4">
-        <v>16.16</v>
+        <v>12.889999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>35520</v>
+        <v>35611</v>
       </c>
       <c r="B114" s="4">
-        <v>18.21</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>35430</v>
+        <v>35520</v>
       </c>
       <c r="B115" s="4">
-        <v>14.05</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>35338</v>
+        <v>35430</v>
       </c>
       <c r="B116" s="4">
-        <v>2.33</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>35246</v>
+        <v>35338</v>
       </c>
       <c r="B117" s="4">
-        <v>1.39</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>35155</v>
+        <v>35246</v>
       </c>
       <c r="B118" s="4">
-        <v>4.58</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>35064</v>
+        <v>35155</v>
       </c>
       <c r="B119" s="4">
-        <v>10.979999999999999</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>34972</v>
+        <v>35064</v>
       </c>
       <c r="B120" s="4">
-        <v>28.720000000000002</v>
+        <v>10.979999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>34880</v>
+        <v>34972</v>
       </c>
       <c r="B121" s="4">
-        <v>36.630000000000003</v>
+        <v>28.720000000000002</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>34789</v>
+        <v>34880</v>
       </c>
       <c r="B122" s="4">
-        <v>43.33</v>
+        <v>36.630000000000003</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>34699</v>
+        <v>34789</v>
       </c>
       <c r="B123" s="4">
-        <v>39.79</v>
+        <v>43.33</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>34607</v>
+        <v>34699</v>
       </c>
       <c r="B124" s="4">
-        <v>33.900000000000006</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>34515</v>
+        <v>34607</v>
       </c>
       <c r="B125" s="4">
-        <v>30.37</v>
+        <v>33.900000000000006</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>34424</v>
+        <v>34515</v>
       </c>
       <c r="B126" s="4">
-        <v>14.469999999999999</v>
+        <v>30.37</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>34334</v>
+        <v>34424</v>
       </c>
       <c r="B127" s="4">
-        <v>14.67</v>
+        <v>14.469999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>34242</v>
+        <v>34334</v>
       </c>
       <c r="B128" s="4">
-        <v>13.139999999999999</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>34150</v>
+        <v>34242</v>
       </c>
       <c r="B129" s="4">
-        <v>13.370000000000001</v>
+        <v>13.139999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>34059</v>
+        <v>34150</v>
       </c>
       <c r="B130" s="4">
-        <v>22.54</v>
+        <v>13.370000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>33969</v>
+        <v>34059</v>
       </c>
       <c r="B131" s="4">
-        <v>19.54</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>33877</v>
+        <v>33969</v>
       </c>
       <c r="B132" s="4">
-        <v>1.23</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>33785</v>
+        <v>33877</v>
       </c>
       <c r="B133" s="4">
-        <v>-12.16</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>33694</v>
+        <v>33785</v>
       </c>
       <c r="B134" s="4">
-        <v>-22.68</v>
+        <v>-12.16</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>33603</v>
+        <v>33694</v>
       </c>
       <c r="B135" s="4">
-        <v>-25.16</v>
+        <v>-22.68</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>33511</v>
+        <v>33603</v>
       </c>
       <c r="B136" s="4">
-        <v>-18.029999999999998</v>
+        <v>-25.16</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>33419</v>
+        <v>33511</v>
       </c>
       <c r="B137" s="4">
-        <v>-8.6999999999999993</v>
+        <v>-18.029999999999998</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>33328</v>
+        <v>33419</v>
       </c>
       <c r="B138" s="4">
-        <v>-3.37</v>
+        <v>-8.6999999999999993</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>33238</v>
+        <v>33328</v>
       </c>
       <c r="B139" s="4">
-        <v>-6.69</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>33146</v>
+        <v>33238</v>
       </c>
       <c r="B140" s="4">
-        <v>-8.23</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>33054</v>
+        <v>33146</v>
       </c>
       <c r="B141" s="4">
-        <v>-15.7</v>
+        <v>-8.23</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>32963</v>
+        <v>33054</v>
       </c>
       <c r="B142" s="4">
-        <v>-13.18</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
+        <v>32963</v>
+      </c>
+      <c r="B143" s="4">
+        <v>-13.18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>32873</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B144" s="4">
         <v>-3.71</v>
       </c>
     </row>
